--- a/conf/smoke3/smoke_section.xlsx
+++ b/conf/smoke3/smoke_section.xlsx
@@ -5,382 +5,433 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="285" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="preg_rule" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="122">
-  <si>
-    <t>#specify the rule type</t>
-  </si>
-  <si>
-    <t>@fastcner</t>
-  </si>
-  <si>
-    <t>#define section header type names: all header types derive from type "SectionHeader", and must be ended with "Header".</t>
-  </si>
-  <si>
-    <t>#All section body types derive from type "SectionBody", and must have the name of the corresponding header name without "Header" suffix.</t>
-  </si>
-  <si>
-    <t>#So that all of them can be queried easily through this parent type name, and section body name can be inferred from the header name.</t>
-  </si>
-  <si>
-    <t>@IndicationHeader</t>
-  </si>
-  <si>
-    <t>SectionHeader</t>
-  </si>
-  <si>
-    <t>@ProcedureHeader</t>
-  </si>
-  <si>
-    <t>@TechniqueHeader</t>
-  </si>
-  <si>
-    <t>@FindingsHeader</t>
-  </si>
-  <si>
-    <t>@ImpressionHeader</t>
-  </si>
-  <si>
-    <t>@PresentHistoryHeader</t>
-  </si>
-  <si>
-    <t>@PastHistoryHeader</t>
-  </si>
-  <si>
-    <t>@DiscussionHeader</t>
-  </si>
-  <si>
-    <t>@PlanHeader</t>
-  </si>
-  <si>
-    <t>@MedicationHeader</t>
-  </si>
-  <si>
-    <t>@InstructionHeader</t>
-  </si>
-  <si>
-    <t>@SocialHistoryHeader</t>
-  </si>
-  <si>
-    <t>@DiagnosisHeader</t>
-  </si>
-  <si>
-    <t>@AssessmentHeader</t>
-  </si>
-  <si>
-    <t>@Indication</t>
-  </si>
-  <si>
-    <t>SectionBody</t>
-  </si>
-  <si>
-    <t>@Procedure</t>
-  </si>
-  <si>
-    <t>@Technique</t>
-  </si>
-  <si>
-    <t>@Findings</t>
-  </si>
-  <si>
-    <t>@Impression</t>
-  </si>
-  <si>
-    <t>@PresentHistory</t>
-  </si>
-  <si>
-    <t>@PastHistory</t>
-  </si>
-  <si>
-    <t>@Discussion</t>
-  </si>
-  <si>
-    <t>@Plan</t>
-  </si>
-  <si>
-    <t>@Medication</t>
-  </si>
-  <si>
-    <t>@Instruction</t>
-  </si>
-  <si>
-    <t>@SocialHistory</t>
-  </si>
-  <si>
-    <t>@Diagnosis</t>
-  </si>
-  <si>
-    <t>@Assessment</t>
-  </si>
-  <si>
-    <t>#matching rules</t>
-  </si>
-  <si>
-    <t>INDICATION):</t>
-  </si>
-  <si>
-    <t>IndicationHeader</t>
-  </si>
-  <si>
-    <t>Indication):</t>
-  </si>
-  <si>
-    <t>INDICATIONS):</t>
-  </si>
-  <si>
-    <t>Indications):</t>
-  </si>
-  <si>
-    <t>PROCEDURE):</t>
-  </si>
-  <si>
-    <t>ProcedureHeader</t>
-  </si>
-  <si>
-    <t>Procedure):</t>
-  </si>
-  <si>
-    <t>TECHNIQUE):</t>
-  </si>
-  <si>
-    <t>TechniqueHeader</t>
-  </si>
-  <si>
-    <t>Technique):</t>
-  </si>
-  <si>
-    <t>FINDINGS):</t>
-  </si>
-  <si>
-    <t>FindingsHeader</t>
-  </si>
-  <si>
-    <t>Findings):</t>
-  </si>
-  <si>
-    <t>IMPRESSION):</t>
-  </si>
-  <si>
-    <t>ImpressionHeader</t>
-  </si>
-  <si>
-    <t>Impression):</t>
-  </si>
-  <si>
-    <t>IMPRESSIONS):</t>
-  </si>
-  <si>
-    <t>Impressions):</t>
-  </si>
-  <si>
-    <t>Comment):</t>
-  </si>
-  <si>
-    <t>Comments):</t>
-  </si>
-  <si>
-    <t>COMMENT):</t>
-  </si>
-  <si>
-    <t>HISTORY):</t>
-  </si>
-  <si>
-    <t>PresentHistoryHeader</t>
-  </si>
-  <si>
-    <t>History):</t>
-  </si>
-  <si>
-    <t>HISTORY OF PRESENT ILLNESS):</t>
-  </si>
-  <si>
-    <t>History of present illness):</t>
-  </si>
-  <si>
-    <t>History of Present Illness):</t>
-  </si>
-  <si>
-    <t>History Of Present Illness):</t>
-  </si>
-  <si>
-    <t>PRESENT HISTORY):</t>
-  </si>
-  <si>
-    <t>Present History):</t>
-  </si>
-  <si>
-    <t>Present history):</t>
-  </si>
-  <si>
-    <t>PAST HISTORY):</t>
-  </si>
-  <si>
-    <t>PastHistoryHeader</t>
-  </si>
-  <si>
-    <t>Past History):</t>
-  </si>
-  <si>
-    <t>Past history):</t>
-  </si>
-  <si>
-    <t>HISTORY OF PAST ILLNESS):</t>
-  </si>
-  <si>
-    <t>History of past illness):</t>
-  </si>
-  <si>
-    <t>History of Past Illness):</t>
-  </si>
-  <si>
-    <t>History Of Past Illness):</t>
-  </si>
-  <si>
-    <t>Past Medical History)</t>
-  </si>
-  <si>
-    <t>PAST MEDICAL HISTORY)</t>
-  </si>
-  <si>
-    <t>\s\s+Discuss)</t>
-  </si>
-  <si>
-    <t>DiscussionHeader</t>
-  </si>
-  <si>
-    <t>\s\s+We discuss</t>
-  </si>
-  <si>
-    <t>#Reviewed options for dealing with symptoms - OCP, Mirena IUD, non hormonal options - gabapentin, clonidine, Effexor.</t>
-  </si>
-  <si>
-    <t>\s\s+Reviewed options</t>
-  </si>
-  <si>
-    <t>\w+(Assessment and Plan):</t>
-  </si>
-  <si>
-    <t>AssessmentHeader</t>
-  </si>
-  <si>
-    <t>\w+(ASSESSMENT AND PLAN):</t>
-  </si>
-  <si>
-    <t>\w(A/P)\p</t>
-  </si>
-  <si>
-    <t>\w(A/P)\s</t>
-  </si>
-  <si>
-    <t>\w(P):</t>
-  </si>
-  <si>
-    <t>PlanHeader</t>
-  </si>
-  <si>
-    <t>\w+(Plan):</t>
-  </si>
-  <si>
-    <t>\w+(PLAN):</t>
-  </si>
-  <si>
-    <t>\w+(ros):</t>
-  </si>
-  <si>
-    <t>\w+(ROS):</t>
-  </si>
-  <si>
-    <t>\w+(REVIEW OF SYSTEM):</t>
-  </si>
-  <si>
-    <t>\w+(REVIEW OF SYSTEMS):</t>
-  </si>
-  <si>
-    <t>\w(Review of System):</t>
-  </si>
-  <si>
-    <t>\w(Review of Systems):</t>
-  </si>
-  <si>
-    <t>\w(Review Of System):</t>
-  </si>
-  <si>
-    <t>\C\c+\w+Instruction)\w\w\w</t>
-  </si>
-  <si>
-    <t>InstructionHeader</t>
-  </si>
-  <si>
-    <t>\C\c+\w+Instructions)\w\w\w</t>
-  </si>
-  <si>
-    <t>\C\C+\w+INSTRUCTION)\w\w\w</t>
-  </si>
-  <si>
-    <t>\C\C+\w+INSTRUCTIONS)\w\w\w</t>
-  </si>
-  <si>
-    <t>\C\C+ MEDICATIONS):</t>
-  </si>
-  <si>
-    <t>MedicationHeader</t>
-  </si>
-  <si>
-    <t>SOCIAL HISTORY):</t>
-  </si>
-  <si>
-    <t>SocialHistoryHeader</t>
-  </si>
-  <si>
-    <t>Social History):</t>
-  </si>
-  <si>
-    <t>\C\C+ DIAGNOS\CS):</t>
-  </si>
-  <si>
-    <t>DiagnosisHeader</t>
-  </si>
-  <si>
-    <t>\C\c+ DiagnocS):</t>
-  </si>
-  <si>
-    <t>\C\C+ DIAGNOS\CS)\n</t>
-  </si>
-  <si>
-    <t>\C\c+ DiagnocS)\n</t>
-  </si>
-  <si>
-    <t>\C\C+ DIAGNOS\CS)\s+\n</t>
-  </si>
-  <si>
-    <t>\C\c+ DiagnocS)\s+\n</t>
-  </si>
-  <si>
-    <t>\w+(Following up):</t>
-  </si>
-  <si>
-    <t>\w+(Follow up):</t>
-  </si>
-  <si>
-    <t>\w+(Following Up):</t>
-  </si>
-  <si>
-    <t>\w+(Follow Up):</t>
-  </si>
-  <si>
-    <t># PLAN   RTC 1 week.  IUD for BC  Epidural  Going to her pediatrician in utah valley.</t>
-  </si>
-  <si>
-    <t>\w+PLAN\w+</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+  <si>
+    <t xml:space="preserve">#specify the rule type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@fastcner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#define section header type names: all header types derive from type "SectionHeader", and must be ended with "Header".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#All section body types derive from type "SectionBody", and must have the name of the corresponding header name without "Header" suffix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#So that all of them can be queried easily through this parent type name, and section body name can be inferred from the header name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@IndicationHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SectionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ProcedureHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@TechniqueHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@FindingsHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@ImpressionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PresentHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PastHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DiscussionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PlanHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@MedicationHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@InstructionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SocialHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DiagnosisHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@AssessmentHeader</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">@</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">AllergyHeader</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">@Indication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SectionBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Procedure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Impression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PresentHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@PastHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Medication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@SocialHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Diagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@Allergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#matching rules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATION):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IndicationHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDICATIONS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indications):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROCEDURE):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcedureHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedure):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TECHNIQUE):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TechniqueHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technique):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FINDINGS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FindingsHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSION):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ImpressionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impression):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPRESSIONS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impressions):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PresentHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY OF PRESENT ILLNESS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of present illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Present Illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History Of Present Illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENT HISTORY):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present History):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Present history):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAST HISTORY):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PastHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past History):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past history):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HISTORY OF PAST ILLNESS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of past illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Past Illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History Of Past Illness):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Past Medical History)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAST MEDICAL HISTORY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\s\s+Discuss)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiscussionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\s\s+We discuss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Reviewed options for dealing with symptoms - OCP, Mirena IUD, non hormonal options - gabapentin, clonidine, Effexor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\s\s+Reviewed options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Assessment and Plan):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AssessmentHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(ASSESSMENT AND PLAN):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(A/P)\p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(A/P)\s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(P):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PlanHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Plan):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(PLAN):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(ros):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(ROS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(REVIEW OF SYSTEM):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(REVIEW OF SYSTEMS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(Review of System):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(Review of Systems):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w(Review Of System):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\c+\w+Instruction)\w\w\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InstructionHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\c+\w+Instructions)\w\w\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+\w+INSTRUCTION)\w\w\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+\w+INSTRUCTIONS)\w\w\w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+ MEDICATIONS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedicationHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCIAL HISTORY):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SocialHistoryHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social History):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+ DIAGNOS\CS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DiagnosisHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\c+ DiagnocS):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+ DIAGNOS\CS)\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\c+ DiagnocS)\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\C+ DIAGNOS\CS)\s+\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\C\c+ DiagnocS)\s+\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Following up):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Follow up):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Following Up):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+(Follow Up):</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># PLAN   RTC 1 week.  IUD for BC  Epidural  Going to her pediatrician in utah valley.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\w+PLAN\w+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](Allergies)[| +][|:][| +]\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllergyHeader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](Allergies)[| +]:[| +]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](Allergy)[| +][|:][| +]\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](allergies)[| +]:[| +]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](allergies)[| +]:[| +]\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](allergy)[| +]:[| +]\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\n[| +](allergy)[| +]:[| +]</t>
   </si>
 </sst>
 </file>
@@ -388,9 +439,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -411,6 +462,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -481,18 +537,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52:C55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,20 +688,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>21</v>
+      <c r="B21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +709,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +717,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,7 +733,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,7 +741,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -717,7 +773,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +781,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -733,7 +789,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,22 +797,27 @@
         <v>34</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C38" s="0" t="s">
         <v>37</v>
       </c>
     </row>
@@ -768,40 +829,40 @@
         <v>0.5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -812,18 +873,18 @@
         <v>0.5</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -834,18 +895,18 @@
         <v>0.5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,18 +917,18 @@
         <v>0.5</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -878,84 +939,84 @@
         <v>0.5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>59</v>
+      <c r="B56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,95 +1027,95 @@
         <v>0.5</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C59" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C67" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1065,95 +1126,95 @@
         <v>0.5</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>71</v>
-      </c>
-      <c r="B69" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>77</v>
+      <c r="A75" s="0" t="s">
+        <v>78</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C78" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
         <v>79</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,78 +1225,78 @@
         <v>0.4</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C84" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="B82" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="B86" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,128 +1307,128 @@
         <v>0.4</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>48</v>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>100</v>
+      <c r="B103" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1378,61 +1439,61 @@
         <v>0.4</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C106" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="B106" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B110" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C110" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>105</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B114" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C114" s="0" t="s">
+      <c r="B112" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C112" s="0" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1444,139 +1505,227 @@
         <v>0.4</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B117" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C117" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>110</v>
       </c>
+      <c r="B116" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="0" t="s">
         <v>111</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C119" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B119" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C119" s="0" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>113</v>
+      <c r="A120" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>114</v>
+      <c r="A121" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C121" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
-        <v>115</v>
+      <c r="A122" s="0" t="s">
+        <v>116</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C122" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="0" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C125" s="0" t="s">
-        <v>89</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C126" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="C128" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>120</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B131" s="0" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B132" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="C131" s="0" t="s">
-        <v>89</v>
+      <c r="C132" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
